--- a/Lista de Revisión de un SRS - Revisión.xlsx
+++ b/Lista de Revisión de un SRS - Revisión.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Lista de Revisión "Checklist"</t>
   </si>
@@ -65,9 +65,6 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>¿Se encuentra la última versión del documento en el repositorio y todos tiene acceso al él?</t>
   </si>
   <si>
@@ -126,6 +123,12 @@
   </si>
   <si>
     <t>¿Están todas las referencias importantes del documento?</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>En proyectos anteriores a este.</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -378,24 +381,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,16 +426,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1801,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,16 +1822,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1853,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>41932</v>
+        <v>41936</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1867,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1890,29 +1899,29 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1941,129 +1950,131 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>30</v>
+      <c r="A12" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -2073,9 +2084,9 @@
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -2085,9 +2096,9 @@
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -2097,30 +2108,30 @@
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2154,37 +2165,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C23:D23"/>
@@ -2200,6 +2180,37 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
